--- a/data_year/zb/运输和邮电/货物运输平均运距.xlsx
+++ b/data_year/zb/运输和邮电/货物运输平均运距.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>177.2416276288</v>
       </c>
       <c r="C2" t="n">
-        <v>2555</v>
+        <v>3177.378113927</v>
       </c>
       <c r="D2" t="n">
-        <v>1939</v>
+        <v>1805.7186164893</v>
       </c>
       <c r="E2" t="n">
-        <v>340</v>
+        <v>439.6861330646</v>
       </c>
       <c r="F2" t="n">
-        <v>326</v>
+        <v>437.5258508037</v>
       </c>
       <c r="G2" t="n">
-        <v>771</v>
+        <v>758.8896326503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>182.1734711535</v>
       </c>
       <c r="C3" t="n">
-        <v>2556</v>
+        <v>3119.5905840062</v>
       </c>
       <c r="D3" t="n">
-        <v>1959</v>
+        <v>1770.6455837058</v>
       </c>
       <c r="E3" t="n">
-        <v>336</v>
+        <v>505.5724871708</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6501655394</v>
+        <v>430.9582823236</v>
       </c>
       <c r="G3" t="n">
-        <v>761</v>
+        <v>749.2643197917999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>186.7189320914</v>
       </c>
       <c r="C4" t="n">
-        <v>2551</v>
+        <v>3006.9554531824</v>
       </c>
       <c r="D4" t="n">
-        <v>1940</v>
+        <v>1781.2663672731</v>
       </c>
       <c r="E4" t="n">
-        <v>339</v>
+        <v>515.6343539962</v>
       </c>
       <c r="F4" t="n">
-        <v>342</v>
+        <v>423.8929922849</v>
       </c>
       <c r="G4" t="n">
-        <v>764</v>
+        <v>747.5482108306001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>181.1649480214</v>
       </c>
       <c r="C5" t="n">
-        <v>2643</v>
+        <v>3034.1382988263</v>
       </c>
       <c r="D5" t="n">
-        <v>1817</v>
+        <v>1419.0385719517</v>
       </c>
       <c r="E5" t="n">
-        <v>336</v>
+        <v>536.1072088914</v>
       </c>
       <c r="F5" t="n">
-        <v>344.2599685537</v>
+        <v>409.89972641</v>
       </c>
       <c r="G5" t="n">
-        <v>769.0882415897</v>
+        <v>735.4199919718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>182.5917167898</v>
       </c>
       <c r="C6" t="n">
-        <v>2595</v>
+        <v>3160.6104014817</v>
       </c>
       <c r="D6" t="n">
-        <v>2211</v>
+        <v>1550.6813173851</v>
       </c>
       <c r="E6" t="n">
-        <v>329</v>
+        <v>586.8700785204001</v>
       </c>
       <c r="F6" t="n">
-        <v>407</v>
+        <v>435.9365880361</v>
       </c>
       <c r="G6" t="n">
-        <v>775</v>
+        <v>721.9446564271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>183.9853172314</v>
       </c>
       <c r="C7" t="n">
-        <v>2572</v>
+        <v>3306.3756189077</v>
       </c>
       <c r="D7" t="n">
-        <v>2261</v>
+        <v>1495.7201202151</v>
       </c>
       <c r="E7" t="n">
-        <v>350</v>
+        <v>614.913681297</v>
       </c>
       <c r="F7" t="n">
-        <v>431</v>
+        <v>427.1090945357</v>
       </c>
       <c r="G7" t="n">
-        <v>770</v>
+        <v>707.3924080035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.5207321323</v>
+        <v>182.805614414</v>
       </c>
       <c r="C8" t="n">
-        <v>2697.9575651867</v>
+        <v>3330.0277015119</v>
       </c>
       <c r="D8" t="n">
-        <v>2231.004430988</v>
+        <v>1525.1181624334</v>
       </c>
       <c r="E8" t="n">
-        <v>463.9178926015</v>
+        <v>571.5557355641999</v>
       </c>
       <c r="F8" t="n">
-        <v>436.1180512414</v>
+        <v>425.4378259622</v>
       </c>
       <c r="G8" t="n">
-        <v>761.7134589764</v>
+        <v>714.0830699771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.2598851309</v>
+        <v>181.106847502</v>
       </c>
       <c r="C9" t="n">
-        <v>2896.2823328622</v>
+        <v>3450.2766343546</v>
       </c>
       <c r="D9" t="n">
-        <v>2286.0979590966</v>
+        <v>1476.556739234</v>
       </c>
       <c r="E9" t="n">
-        <v>460.1258284718</v>
+        <v>593.7411091935001</v>
       </c>
       <c r="F9" t="n">
-        <v>445.6360319041</v>
+        <v>410.7779318484</v>
       </c>
       <c r="G9" t="n">
-        <v>757.2946533985</v>
+        <v>730.9507674526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.4779275851</v>
+        <v>180.0645430586</v>
       </c>
       <c r="C10" t="n">
-        <v>2934.0342042032</v>
+        <v>3554.4429171045</v>
       </c>
       <c r="D10" t="n">
-        <v>1706.6552748633</v>
+        <v>1409.634757765</v>
       </c>
       <c r="E10" t="n">
-        <v>443</v>
+        <v>590.2342488712</v>
       </c>
       <c r="F10" t="n">
-        <v>427</v>
+        <v>397.2383090167</v>
       </c>
       <c r="G10" t="n">
-        <v>759.9808422261</v>
+        <v>715.816495221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.7731284489</v>
+        <v>173.5896918342</v>
       </c>
       <c r="C11" t="n">
-        <v>2833.2406432092</v>
+        <v>3494.6772165766</v>
       </c>
       <c r="D11" t="n">
-        <v>1804.3070195238</v>
+        <v>1391.3208387048</v>
       </c>
       <c r="E11" t="n">
-        <v>453.4727999506</v>
+        <v>586.2008866467</v>
       </c>
       <c r="F11" t="n">
-        <v>432.2963474239</v>
+        <v>423.0170130464</v>
       </c>
       <c r="G11" t="n">
-        <v>757.1419389901999</v>
+        <v>687.6658183717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.2416276288</v>
+        <v>175.611770093097</v>
       </c>
       <c r="C12" t="n">
-        <v>3177.378113927</v>
+        <v>3550.08711925959</v>
       </c>
       <c r="D12" t="n">
-        <v>1805.7186164893</v>
+        <v>1389.57817575463</v>
       </c>
       <c r="E12" t="n">
-        <v>439.6861330646</v>
+        <v>633.011226329835</v>
       </c>
       <c r="F12" t="n">
-        <v>437.5258508037</v>
+        <v>427.320411946912</v>
       </c>
       <c r="G12" t="n">
-        <v>758.8896326503</v>
+        <v>670.299538598912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.1734711535</v>
+        <v>176.519214751598</v>
       </c>
       <c r="C13" t="n">
-        <v>3119.5905840062</v>
+        <v>3800.73810862265</v>
       </c>
       <c r="D13" t="n">
-        <v>1770.6455837058</v>
+        <v>1402.68599572155</v>
       </c>
       <c r="E13" t="n">
-        <v>505.5724871708</v>
+        <v>656.583481881491</v>
       </c>
       <c r="F13" t="n">
-        <v>430.9582823236</v>
+        <v>422.00701107442</v>
       </c>
       <c r="G13" t="n">
-        <v>749.2643197917999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>186.7189320914</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3006.9554531824</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1781.2663672731</v>
-      </c>
-      <c r="E14" t="n">
-        <v>515.6343539962</v>
-      </c>
-      <c r="F14" t="n">
-        <v>423.8929922849</v>
-      </c>
-      <c r="G14" t="n">
-        <v>747.5482108306001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>181.1649480214</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3034.1382988263</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1419.0385719517</v>
-      </c>
-      <c r="E15" t="n">
-        <v>536.1072088914</v>
-      </c>
-      <c r="F15" t="n">
-        <v>409.89972641</v>
-      </c>
-      <c r="G15" t="n">
-        <v>735.4199919718</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>182.5917167898</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3160.6104014817</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1550.6813173851</v>
-      </c>
-      <c r="E16" t="n">
-        <v>586.8700785204001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>435.9365880361</v>
-      </c>
-      <c r="G16" t="n">
-        <v>721.9446564271</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>183.9853172314</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3306.3756189077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1495.7201202151</v>
-      </c>
-      <c r="E17" t="n">
-        <v>614.913681297</v>
-      </c>
-      <c r="F17" t="n">
-        <v>427.1090945357</v>
-      </c>
-      <c r="G17" t="n">
-        <v>707.3924080035</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>182.805614414</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3330.0277015119</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1525.1181624334</v>
-      </c>
-      <c r="E18" t="n">
-        <v>571.5557355641999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>425.4378259622</v>
-      </c>
-      <c r="G18" t="n">
-        <v>714.0830699771</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>181.106847502</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3450.2766343546</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1476.556739234</v>
-      </c>
-      <c r="E19" t="n">
-        <v>593.7411091935001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>410.7779318484</v>
-      </c>
-      <c r="G19" t="n">
-        <v>730.9507674526</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>180.0645430586</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3554.4429171045</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1409.634757765</v>
-      </c>
-      <c r="E20" t="n">
-        <v>590.2342488712</v>
-      </c>
-      <c r="F20" t="n">
-        <v>397.2383090167</v>
-      </c>
-      <c r="G20" t="n">
-        <v>715.816495221</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>173.5896918342</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3494.6772165766</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1391.3208387048</v>
-      </c>
-      <c r="E21" t="n">
-        <v>586.2008866467</v>
-      </c>
-      <c r="F21" t="n">
-        <v>423.0170130464</v>
-      </c>
-      <c r="G21" t="n">
-        <v>687.6658183717</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>175.611770093097</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3550.08711925959</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1389.57817575463</v>
-      </c>
-      <c r="E22" t="n">
-        <v>636.554921648526</v>
-      </c>
-      <c r="F22" t="n">
-        <v>427.546168794597</v>
-      </c>
-      <c r="G22" t="n">
-        <v>670.299538598912</v>
+        <v>696.27090994479</v>
       </c>
     </row>
   </sheetData>
